--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_6.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_2</t>
+          <t>model_18_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9688788063864436</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7954975344389621</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9456707640133555</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8707550331316134</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9282051352944481</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2081075649937713</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36750892885393</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7110308048187607</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5896422461422333</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.650336525480497</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L2" t="n">
-        <v>1.428699913116382</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4561880807230405</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N2" t="n">
-        <v>1.057454511286566</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4756089517589315</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P2" t="n">
-        <v>77.13940038711637</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.2378059072398</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_1</t>
+          <t>model_18_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.968878871222556</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7954975295877244</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.945671076438944</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8707548994335577</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F3" t="n">
-        <v>0.928205327323282</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2081071314343894</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.367508961294179</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7110267159665312</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J3" t="n">
-        <v>0.589642856100391</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6503347860334612</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L3" t="n">
-        <v>1.428699522136001</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.456187605524733</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N3" t="n">
-        <v>1.057454391589127</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4756084563304483</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P3" t="n">
-        <v>77.13940455380616</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.2378100739296</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_3</t>
+          <t>model_18_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9688787754966967</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7954975217501369</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9456705792880407</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8707551984971954</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F4" t="n">
-        <v>0.928205032154398</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2081077715536518</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H4" t="n">
-        <v>1.367509013704162</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7110332224008761</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5896414917102768</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6503374597498506</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42869398312412</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4561883071207018</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N4" t="n">
-        <v>1.057454568313791</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O4" t="n">
-        <v>0.47560918779481</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P4" t="n">
-        <v>77.13939840199124</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.2378039221147</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_0</t>
+          <t>model_18_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9688790951070209</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7954975170301878</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9456716518899393</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8707554965967871</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9282059047495377</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2081056343179422</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H5" t="n">
-        <v>1.367509045266484</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7110191847841593</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5896401317183401</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6503295555565136</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L5" t="n">
-        <v>1.428699459348871</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4561859646218219</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N5" t="n">
-        <v>1.057453978263962</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4756067455709032</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P5" t="n">
-        <v>77.13941894179779</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.2378244619212</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_4</t>
+          <t>model_18_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.968878672389522</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954974889435756</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9456703533440117</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8707551202435546</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9282048730331638</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2081084610318035</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367509233081789</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7110361794305823</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5896418487195568</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6503389011113044</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L6" t="n">
-        <v>1.428695530237997</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4561890628147539</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N6" t="n">
-        <v>1.057454758665498</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4756099756603224</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P6" t="n">
-        <v>77.13939177583784</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.2377972959613</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_5</t>
+          <t>model_18_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9688783770610869</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7954974368831579</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9456695361895454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8707549039465063</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.928204215777647</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2081104358944088</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H7" t="n">
-        <v>1.367509581210042</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7110468738934668</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5896428355113869</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6503448547024269</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L7" t="n">
-        <v>1.428696464634787</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4561912273317066</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N7" t="n">
-        <v>1.057455303887224</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4756122323252429</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P7" t="n">
-        <v>77.13937279676101</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.2377783168844</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_6</t>
+          <t>model_18_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9688783770610911</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7954974363702882</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9456695361895454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8707549039465063</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.928204215777647</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2081104358943805</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H8" t="n">
-        <v>1.367509584639603</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7110468738934668</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5896428355113869</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6503448547024269</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L8" t="n">
-        <v>1.428696457251124</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4561912273316756</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N8" t="n">
-        <v>1.057455303887216</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4756122323252106</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P8" t="n">
-        <v>77.13937279676128</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.2377783168847</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_7</t>
+          <t>model_18_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9688783770610911</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7954974363702882</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9456695361895454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8707549039465063</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.928204215777647</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2081104358943805</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H9" t="n">
-        <v>1.367509584639603</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7110468738934668</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5896428355113869</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6503448547024269</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L9" t="n">
-        <v>1.428696457251124</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4561912273316756</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N9" t="n">
-        <v>1.057455303887216</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4756122323252106</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P9" t="n">
-        <v>77.13937279676128</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.2377783168847</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_8</t>
+          <t>model_18_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9688783770610911</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7954974363702882</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9456695361895454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8707549039465063</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.928204215777647</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2081104358943805</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.367509584639603</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7110468738934668</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5896428355113869</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6503448547024269</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L10" t="n">
-        <v>1.428696457251124</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4561912273316756</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N10" t="n">
-        <v>1.057455303887216</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4756122323252106</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P10" t="n">
-        <v>77.13937279676128</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.2377783168847</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_22</t>
+          <t>model_18_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H11" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J11" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L11" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N11" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P11" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_21</t>
+          <t>model_18_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H12" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J12" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L12" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N12" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P12" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_20</t>
+          <t>model_18_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H13" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J13" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L13" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P13" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_19</t>
+          <t>model_18_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H14" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J14" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L14" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N14" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P14" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_18</t>
+          <t>model_18_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H15" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J15" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L15" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N15" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P15" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_17</t>
+          <t>model_18_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H16" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J16" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L16" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N16" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P16" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_16</t>
+          <t>model_18_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H17" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J17" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L17" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N17" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P17" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_12</t>
+          <t>model_18_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H18" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J18" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L18" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N18" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P18" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_14</t>
+          <t>model_18_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H19" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J19" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L19" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N19" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P19" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_13</t>
+          <t>model_18_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H20" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J20" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L20" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N20" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P20" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_23</t>
+          <t>model_18_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J21" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L21" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N21" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P21" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_11</t>
+          <t>model_18_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H22" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J22" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L22" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N22" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P22" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_10</t>
+          <t>model_18_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H23" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J23" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L23" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N23" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P23" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_9</t>
+          <t>model_18_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H24" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J24" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L24" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N24" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P24" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_15</t>
+          <t>model_18_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H25" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J25" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L25" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N25" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P25" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9456695343567454</v>
+        <v>-2.168505061189287</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8707548375736618</v>
+        <v>0.9981923858055494</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9282041977392317</v>
+        <v>0.9214630940901699</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H26" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7110468978801335</v>
+        <v>1.046391856916375</v>
       </c>
       <c r="J26" t="n">
-        <v>0.589643138318019</v>
+        <v>0.01325539200381348</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6503450180990762</v>
+        <v>0.529823543735148</v>
       </c>
       <c r="L26" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N26" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P26" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_0</t>
+          <t>model_18_6_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9814766936360853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7272395472393733</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.9198830608403303</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9907085414045831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.970848067803229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1238654349474808</v>
       </c>
       <c r="H2" t="n">
-        <v>1.841566075300257</v>
+        <v>1.82395040355671</v>
       </c>
       <c r="I2" t="n">
-        <v>1.046391856916375</v>
+        <v>0.09487030646341596</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.02148515246203761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.529823543735148</v>
+        <v>0.05817769129159431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.044789411477027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3519452158326361</v>
       </c>
       <c r="N2" t="n">
-        <v>1.129554360817876</v>
+        <v>1.034196873287227</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3669282522976641</v>
       </c>
       <c r="P2" t="n">
-        <v>75.51318630499273</v>
+        <v>78.17711900934324</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.6115918251162</v>
+        <v>123.2755245294667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_22</t>
+          <t>model_18_6_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9790203988923174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7270525231883869</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.9520008766182698</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9965820489875992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.9837795082955668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1402906892092542</v>
       </c>
       <c r="H3" t="n">
-        <v>1.841566075300257</v>
+        <v>1.825201034246824</v>
       </c>
       <c r="I3" t="n">
-        <v>1.046391856916375</v>
+        <v>0.0568380618750892</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.007903516746598793</v>
       </c>
       <c r="K3" t="n">
-        <v>0.529823543735148</v>
+        <v>0.032370779151404</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.103539518248503</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3745539870422611</v>
       </c>
       <c r="N3" t="n">
-        <v>1.129554360817876</v>
+        <v>1.038731571275722</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3904995257042911</v>
       </c>
       <c r="P3" t="n">
-        <v>75.51318630499273</v>
+        <v>77.92807731503336</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.6115918251162</v>
+        <v>123.0264828351568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_21</t>
+          <t>model_18_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9826389346897483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7263617944359477</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.8744178049042484</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9809656961887364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.9517149955564254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1160935236700085</v>
       </c>
       <c r="H4" t="n">
-        <v>1.841566075300257</v>
+        <v>1.829819940594898</v>
       </c>
       <c r="I4" t="n">
-        <v>1.046391856916375</v>
+        <v>0.148707894485813</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.04401407111639757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.529823543735148</v>
+        <v>0.09636102552552904</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.010033361725199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3407249971311299</v>
       </c>
       <c r="N4" t="n">
-        <v>1.129554360817876</v>
+        <v>1.032051197495849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3552303656569802</v>
       </c>
       <c r="P4" t="n">
-        <v>75.51318630499273</v>
+        <v>78.30671834835384</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.6115918251162</v>
+        <v>123.4051238684773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_20</t>
+          <t>model_18_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9828353659899216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7247218056396779</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.8203870862212309</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9684220649279034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.9284181819609338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1147799866612667</v>
       </c>
       <c r="H5" t="n">
-        <v>1.841566075300257</v>
+        <v>1.840786553227008</v>
       </c>
       <c r="I5" t="n">
-        <v>1.046391856916375</v>
+        <v>0.2126882573611441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.07301940190477482</v>
       </c>
       <c r="K5" t="n">
-        <v>0.529823543735148</v>
+        <v>0.1428538212787536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9994904469125611</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3387919518838467</v>
       </c>
       <c r="N5" t="n">
-        <v>1.129554360817876</v>
+        <v>1.031688555095529</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3532150266715648</v>
       </c>
       <c r="P5" t="n">
-        <v>75.51318630499273</v>
+        <v>78.32947628502646</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.6115918251162</v>
+        <v>123.4278818051499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_19</t>
+          <t>model_18_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9823283625933853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7225601443381826</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.7614727640807342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9539787795315839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.9025719415178366</v>
       </c>
       <c r="G6" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1181703207084405</v>
       </c>
       <c r="H6" t="n">
-        <v>1.841566075300257</v>
+        <v>1.855241592303642</v>
       </c>
       <c r="I6" t="n">
-        <v>1.046391856916375</v>
+        <v>0.2824515290884159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.1064174077836056</v>
       </c>
       <c r="K6" t="n">
-        <v>0.529823543735148</v>
+        <v>0.1944344364982616</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9905208484303502</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3437591027281177</v>
       </c>
       <c r="N6" t="n">
-        <v>1.129554360817876</v>
+        <v>1.032624561366058</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3583936394106961</v>
       </c>
       <c r="P6" t="n">
-        <v>75.51318630499273</v>
+        <v>78.2712565987534</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.6115918251162</v>
+        <v>123.3696621188768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_18</t>
+          <t>model_18_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9813248445090544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7200650871230185</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.7004450438484855</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9383772342779747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.8754276981615683</v>
       </c>
       <c r="G7" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1248808507591373</v>
       </c>
       <c r="H7" t="n">
-        <v>1.841566075300257</v>
+        <v>1.871926051390127</v>
       </c>
       <c r="I7" t="n">
-        <v>1.046391856916375</v>
+        <v>0.3547173767596353</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.1424937218493557</v>
       </c>
       <c r="K7" t="n">
-        <v>0.529823543735148</v>
+        <v>0.2486054396299101</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9826674170406103</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3533848479478673</v>
       </c>
       <c r="N7" t="n">
-        <v>1.129554360817876</v>
+        <v>1.03447721013713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3684291725324901</v>
       </c>
       <c r="P7" t="n">
-        <v>75.51318630499273</v>
+        <v>78.16079038036992</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.6115918251162</v>
+        <v>123.2591959004933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_17</t>
+          <t>model_18_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9799856885814032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7173811728646569</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.6393269998220839</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9222089574034458</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.8479281644995449</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1338357926135866</v>
       </c>
       <c r="H8" t="n">
-        <v>1.841566075300257</v>
+        <v>1.88987339839408</v>
       </c>
       <c r="I8" t="n">
-        <v>1.046391856916375</v>
+        <v>0.4270901811633775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.1798805207174086</v>
       </c>
       <c r="K8" t="n">
-        <v>0.529823543735148</v>
+        <v>0.3034854856334889</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.975923949225932</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3658357454016578</v>
       </c>
       <c r="N8" t="n">
-        <v>1.129554360817876</v>
+        <v>1.036949498003563</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3814101304677993</v>
       </c>
       <c r="P8" t="n">
-        <v>75.51318630499273</v>
+        <v>78.02228331747843</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.6115918251162</v>
+        <v>123.1206888376018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_16</t>
+          <t>model_18_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9784342080691097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7146172629706571</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.5795550803286889</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.9059313957349626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.8207649775286202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1442105499432043</v>
       </c>
       <c r="H9" t="n">
-        <v>1.841566075300257</v>
+        <v>1.908355676581892</v>
       </c>
       <c r="I9" t="n">
-        <v>1.046391856916375</v>
+        <v>0.4978689750080073</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.2175200248454349</v>
       </c>
       <c r="K9" t="n">
-        <v>0.529823543735148</v>
+        <v>0.3576942940041859</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.970179919326338</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3797506417943284</v>
       </c>
       <c r="N9" t="n">
-        <v>1.129554360817876</v>
+        <v>1.039813769718567</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3959174128077123</v>
       </c>
       <c r="P9" t="n">
-        <v>75.51318630499273</v>
+        <v>77.87296178985348</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.6115918251162</v>
+        <v>122.9713673099769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_15</t>
+          <t>model_18_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9767635691250088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7118534053104671</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.5221016147232012</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8898910673613385</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.794426838116609</v>
       </c>
       <c r="G10" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1553821202549923</v>
       </c>
       <c r="H10" t="n">
-        <v>1.841566075300257</v>
+        <v>1.926837605481976</v>
       </c>
       <c r="I10" t="n">
-        <v>1.046391856916375</v>
+        <v>0.56590237651521</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.2546109613339699</v>
       </c>
       <c r="K10" t="n">
-        <v>0.529823543735148</v>
+        <v>0.4102565781630619</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9647953066116846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3941853881804757</v>
       </c>
       <c r="N10" t="n">
-        <v>1.129554360817876</v>
+        <v>1.042898026230753</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4109666762315622</v>
       </c>
       <c r="P10" t="n">
-        <v>75.51318630499273</v>
+        <v>77.72373580788451</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.6115918251162</v>
+        <v>122.8221413280079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_14</t>
+          <t>model_18_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9750429874206021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7091472383353474</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.4675961492738147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8743373192289967</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.7692452770223197</v>
       </c>
       <c r="G11" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1668876580349098</v>
       </c>
       <c r="H11" t="n">
-        <v>1.841566075300257</v>
+        <v>1.944933756505354</v>
       </c>
       <c r="I11" t="n">
-        <v>1.046391856916375</v>
+        <v>0.6304449097840978</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.2905767514785155</v>
       </c>
       <c r="K11" t="n">
-        <v>0.529823543735148</v>
+        <v>0.4605107114978758</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9597321213300311</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4085188588485357</v>
       </c>
       <c r="N11" t="n">
-        <v>1.129554360817876</v>
+        <v>1.046074484761965</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4259103524203363</v>
       </c>
       <c r="P11" t="n">
-        <v>75.51318630499273</v>
+        <v>77.58086879862326</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.6115918251162</v>
+        <v>122.6792743187467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_13</t>
+          <t>model_18_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9733229108153085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7065386814755611</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.4163992755732631</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8594450406966776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.7454284281802454</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1783898182147328</v>
       </c>
       <c r="H12" t="n">
-        <v>1.841566075300257</v>
+        <v>1.962377188238046</v>
       </c>
       <c r="I12" t="n">
-        <v>1.046391856916375</v>
+        <v>0.6910695810319623</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.3250129889635354</v>
       </c>
       <c r="K12" t="n">
-        <v>0.529823543735148</v>
+        <v>0.5080413269685801</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.954936811589741</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4223621884292352</v>
       </c>
       <c r="N12" t="n">
-        <v>1.129554360817876</v>
+        <v>1.049250010802507</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4403430212009289</v>
       </c>
       <c r="P12" t="n">
-        <v>75.51318630499273</v>
+        <v>77.44756826650463</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.6115918251162</v>
+        <v>122.5459737866281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_23</t>
+          <t>model_18_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9716391422196075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7040541126771123</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.3686880893516398</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8453274228980054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.7230945163037354</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1896491865672271</v>
       </c>
       <c r="H13" t="n">
-        <v>1.841566075300257</v>
+        <v>1.97899151123366</v>
       </c>
       <c r="I13" t="n">
-        <v>1.046391856916375</v>
+        <v>0.7475666827192551</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.3576579356842647</v>
       </c>
       <c r="K13" t="n">
-        <v>0.529823543735148</v>
+        <v>0.5526124868393891</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9504034887903324</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4354872978253523</v>
       </c>
       <c r="N13" t="n">
-        <v>1.129554360817876</v>
+        <v>1.052358506671494</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4540268936767607</v>
       </c>
       <c r="P13" t="n">
-        <v>75.51318630499273</v>
+        <v>77.32515859996514</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.6115918251162</v>
+        <v>122.4235641200886</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9700164338449978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7017095804545975</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.3244974885171867</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8320520820695294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.7022932120767662</v>
       </c>
       <c r="G14" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2005002449401271</v>
       </c>
       <c r="H14" t="n">
-        <v>1.841566075300257</v>
+        <v>1.994669409001195</v>
       </c>
       <c r="I14" t="n">
-        <v>1.046391856916375</v>
+        <v>0.7998948905606933</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.388355238885509</v>
       </c>
       <c r="K14" t="n">
-        <v>0.529823543735148</v>
+        <v>0.5941250647231011</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.946125774651181</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4477725370543923</v>
       </c>
       <c r="N14" t="n">
-        <v>1.129554360817876</v>
+        <v>1.055354275978466</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.466835140973732</v>
       </c>
       <c r="P14" t="n">
-        <v>75.51318630499273</v>
+        <v>77.21387962117947</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.6115918251162</v>
+        <v>122.3122851413029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_10</t>
+          <t>model_18_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9684710434735467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6995136438028029</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.2837696203293599</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8196491092283313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6830245459421778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.469262412304898</v>
+        <v>0.210834277469889</v>
       </c>
       <c r="H15" t="n">
-        <v>1.841566075300257</v>
+        <v>2.009353647503104</v>
       </c>
       <c r="I15" t="n">
-        <v>1.046391856916375</v>
+        <v>0.8481227107583699</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.4170353174478885</v>
       </c>
       <c r="K15" t="n">
-        <v>0.529823543735148</v>
+        <v>0.6325789998657965</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9420953889385373</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.459166938563622</v>
       </c>
       <c r="N15" t="n">
-        <v>1.129554360817876</v>
+        <v>1.058207304356529</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4787146257448724</v>
       </c>
       <c r="P15" t="n">
-        <v>75.51318630499273</v>
+        <v>77.1133657378811</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.6115918251162</v>
+        <v>122.2117712580045</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_9</t>
+          <t>model_18_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9670129327300984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6974693012658311</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.2463831254945839</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.8081231959622824</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6652553257856292</v>
       </c>
       <c r="G16" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2205846707253107</v>
       </c>
       <c r="H16" t="n">
-        <v>1.841566075300257</v>
+        <v>2.023024175461166</v>
       </c>
       <c r="I16" t="n">
-        <v>1.046391856916375</v>
+        <v>0.8923938506667402</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.4436873227538619</v>
       </c>
       <c r="K16" t="n">
-        <v>0.529823543735148</v>
+        <v>0.6680405328366562</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9383124651225944</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4696644235252556</v>
       </c>
       <c r="N16" t="n">
-        <v>1.129554360817876</v>
+        <v>1.060899201113665</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4896590103741124</v>
       </c>
       <c r="P16" t="n">
-        <v>75.51318630499273</v>
+        <v>77.02294732716611</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.6115918251162</v>
+        <v>122.1213528472895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_8</t>
+          <t>model_18_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.965647267374954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6955753950926582</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.2121750885756418</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7974618484771829</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6489298627768183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2297168812434715</v>
       </c>
       <c r="H17" t="n">
-        <v>1.841566075300257</v>
+        <v>2.035688734761809</v>
       </c>
       <c r="I17" t="n">
-        <v>1.046391856916375</v>
+        <v>0.9329012262611083</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.4683401448932309</v>
       </c>
       <c r="K17" t="n">
-        <v>0.529823543735148</v>
+        <v>0.7006208002682655</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9347735419616545</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4792878897317056</v>
       </c>
       <c r="N17" t="n">
-        <v>1.129554360817876</v>
+        <v>1.063420429461623</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.4996921674602922</v>
       </c>
       <c r="P17" t="n">
-        <v>75.51318630499273</v>
+        <v>76.94181535883382</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.6115918251162</v>
+        <v>122.0402208789572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_7</t>
+          <t>model_18_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9643757585306775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6938279259669957</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.180955417394728</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7876356516203774</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6339749674822308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2382194667399088</v>
       </c>
       <c r="H18" t="n">
-        <v>1.841566075300257</v>
+        <v>2.04737406885147</v>
       </c>
       <c r="I18" t="n">
-        <v>1.046391856916375</v>
+        <v>0.969869934797484</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.4910618021467645</v>
       </c>
       <c r="K18" t="n">
-        <v>0.529823543735148</v>
+        <v>0.7304658642548989</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9314721980276052</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4880773163546005</v>
       </c>
       <c r="N18" t="n">
-        <v>1.129554360817876</v>
+        <v>1.065767830404903</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5088557781711451</v>
       </c>
       <c r="P18" t="n">
-        <v>75.51318630499273</v>
+        <v>76.86912580210257</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.6115918251162</v>
+        <v>121.967531322226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_6</t>
+          <t>model_18_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9631977698428792</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.692221066696795</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.1525272924092441</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7786075658211847</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6203105205786108</v>
       </c>
       <c r="G19" t="n">
-        <v>0.469262412304898</v>
+        <v>0.246096682519355</v>
       </c>
       <c r="H19" t="n">
-        <v>1.841566075300257</v>
+        <v>2.058119144190209</v>
       </c>
       <c r="I19" t="n">
-        <v>1.046391856916375</v>
+        <v>1.003533039726869</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5119379431577883</v>
       </c>
       <c r="K19" t="n">
-        <v>0.529823543735148</v>
+        <v>0.7577356166769095</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9284087131090181</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.4960813265174925</v>
       </c>
       <c r="N19" t="n">
-        <v>1.129554360817876</v>
+        <v>1.067942578751608</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5172005356172567</v>
       </c>
       <c r="P19" t="n">
-        <v>75.51318630499273</v>
+        <v>76.8040616037798</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.6115918251162</v>
+        <v>121.9024671239032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_5</t>
+          <t>model_18_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9621106918770828</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6907476481851784</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.1266828539799285</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.770335152808137</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.6078504945659485</v>
       </c>
       <c r="G20" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2533659778821697</v>
       </c>
       <c r="H20" t="n">
-        <v>1.841566075300257</v>
+        <v>2.067971900561858</v>
       </c>
       <c r="I20" t="n">
-        <v>1.046391856916375</v>
+        <v>1.034136677607712</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5310667002833858</v>
       </c>
       <c r="K20" t="n">
-        <v>0.529823543735148</v>
+        <v>0.7826017401968521</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9255670379352112</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5033547237109925</v>
       </c>
       <c r="N20" t="n">
-        <v>1.129554360817876</v>
+        <v>1.069949491919232</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5247835763872919</v>
       </c>
       <c r="P20" t="n">
-        <v>75.51318630499273</v>
+        <v>76.74584056522083</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.6115918251162</v>
+        <v>121.8442460853443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_4</t>
+          <t>model_18_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9611109360354044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6893998437143425</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.1032258240278138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7627717499190177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5965095244125159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2600513497989248</v>
       </c>
       <c r="H21" t="n">
-        <v>1.841566075300257</v>
+        <v>2.076984675264406</v>
       </c>
       <c r="I21" t="n">
-        <v>1.046391856916375</v>
+        <v>1.061913270717985</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5485559741724926</v>
       </c>
       <c r="K21" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8052345954079612</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9229388170218786</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5099523014938994</v>
       </c>
       <c r="N21" t="n">
-        <v>1.129554360817876</v>
+        <v>1.071795195011561</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5316620267152857</v>
       </c>
       <c r="P21" t="n">
-        <v>75.51318630499273</v>
+        <v>76.69375233648076</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.6115918251162</v>
+        <v>121.7921578566042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_3</t>
+          <t>model_18_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9601940902749468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6881694977630437</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.08195981783651685</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7558714855286621</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5862027429844245</v>
       </c>
       <c r="G22" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2661823016207912</v>
       </c>
       <c r="H22" t="n">
-        <v>1.841566075300257</v>
+        <v>2.085212004305963</v>
       </c>
       <c r="I22" t="n">
-        <v>1.046391856916375</v>
+        <v>1.087095367610135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5645118363154168</v>
       </c>
       <c r="K22" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8258035492627543</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9205213084221973</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5159285818994632</v>
       </c>
       <c r="N22" t="n">
-        <v>1.129554360817876</v>
+        <v>1.07348783333856</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5378927297503204</v>
       </c>
       <c r="P22" t="n">
-        <v>75.51318630499273</v>
+        <v>76.64714772100525</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.6115918251162</v>
+        <v>121.7455532411287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_2</t>
+          <t>model_18_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9593554438667465</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6870484065499087</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.0627036233867071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7495855335903407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5768479965946469</v>
       </c>
       <c r="G23" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2717903340140381</v>
       </c>
       <c r="H23" t="n">
-        <v>1.841566075300257</v>
+        <v>2.092708746410347</v>
       </c>
       <c r="I23" t="n">
-        <v>1.046391856916375</v>
+        <v>1.109897550119027</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5790471898744902</v>
       </c>
       <c r="K23" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8444725535641541</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9182931871011306</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5213351455772363</v>
       </c>
       <c r="N23" t="n">
-        <v>1.129554360817876</v>
+        <v>1.075036103630622</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5435294620369859</v>
       </c>
       <c r="P23" t="n">
-        <v>75.51318630499273</v>
+        <v>76.60544868151945</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.6115918251162</v>
+        <v>121.7038542016429</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_1</t>
+          <t>model_18_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9585895830843617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6860282214244011</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.04527728645283868</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7438671115490638</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5683651651745918</v>
       </c>
       <c r="G24" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2769116485923104</v>
       </c>
       <c r="H24" t="n">
-        <v>1.841566075300257</v>
+        <v>2.099530729042137</v>
       </c>
       <c r="I24" t="n">
-        <v>1.046391856916375</v>
+        <v>1.13053291066564</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.5922702127333246</v>
       </c>
       <c r="K24" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8614015016799594</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9162558739093456</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5262239528872763</v>
       </c>
       <c r="N24" t="n">
-        <v>1.129554360817876</v>
+        <v>1.07645000045964</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5486263959954406</v>
       </c>
       <c r="P24" t="n">
-        <v>75.51318630499273</v>
+        <v>76.56811356364655</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.6115918251162</v>
+        <v>121.66651908377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_6_11</t>
+          <t>model_18_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9578916879836538</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.685101273721181</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.02952327361185492</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.7386728211014509</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5606819575802753</v>
       </c>
       <c r="G25" t="n">
-        <v>0.469262412304898</v>
+        <v>0.2815784763442561</v>
       </c>
       <c r="H25" t="n">
-        <v>1.841566075300257</v>
+        <v>2.105729232601772</v>
       </c>
       <c r="I25" t="n">
-        <v>1.046391856916375</v>
+        <v>1.149187992124432</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.6042812571837747</v>
       </c>
       <c r="K25" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8767346630132891</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9143874189380296</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5306396859868814</v>
       </c>
       <c r="N25" t="n">
-        <v>1.129554360817876</v>
+        <v>1.077738422184024</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5532301159949237</v>
       </c>
       <c r="P25" t="n">
-        <v>75.51318630499273</v>
+        <v>76.53468818211205</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.6115918251162</v>
+        <v>121.6330937022355</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9572565707544689</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.6842597874042156</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.168505061189287</v>
+        <v>0.0152862020738288</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9981923858055494</v>
+        <v>0.733958938624003</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9214630940901699</v>
+        <v>0.5537270300627313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469262412304898</v>
+        <v>0.285825508180261</v>
       </c>
       <c r="H26" t="n">
-        <v>1.841566075300257</v>
+        <v>2.111356255478008</v>
       </c>
       <c r="I26" t="n">
-        <v>1.046391856916375</v>
+        <v>1.166046790702124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01325539200381348</v>
+        <v>0.6151814277733583</v>
       </c>
       <c r="K26" t="n">
-        <v>0.529823543735148</v>
+        <v>0.8906144162776681</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.912679059854953</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.5346265127921183</v>
       </c>
       <c r="N26" t="n">
-        <v>1.129554360817876</v>
+        <v>1.078910946299442</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.5573866702711286</v>
       </c>
       <c r="P26" t="n">
-        <v>75.51318630499273</v>
+        <v>76.50474753122745</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.6115918251162</v>
+        <v>121.6031530513509</v>
       </c>
     </row>
   </sheetData>
